--- a/data/pca/factorExposure/factorExposure_2014-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-05-30.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.002543060941334022</v>
+        <v>-0.002232882336189751</v>
       </c>
       <c r="C2">
-        <v>-0.1363421213274082</v>
+        <v>-0.01900617672401171</v>
       </c>
       <c r="D2">
-        <v>-0.06024886006622161</v>
+        <v>0.07635120548684465</v>
       </c>
       <c r="E2">
-        <v>-0.2349957471395928</v>
+        <v>0.02780067136196592</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -751,16 +751,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.01090253059097271</v>
+        <v>-0.001811685287668626</v>
       </c>
       <c r="C4">
-        <v>-0.1599589429064307</v>
+        <v>-0.03013807861097082</v>
       </c>
       <c r="D4">
-        <v>-0.05007761634419532</v>
+        <v>0.130466707014296</v>
       </c>
       <c r="E4">
-        <v>-0.01206116724474448</v>
+        <v>0.04733165698707364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -785,16 +785,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.03504744210614092</v>
+        <v>-0.0009986393313058698</v>
       </c>
       <c r="C6">
-        <v>-0.08608654968347139</v>
+        <v>-0.04976166340499943</v>
       </c>
       <c r="D6">
-        <v>-0.05992570440175739</v>
+        <v>0.08247251196231438</v>
       </c>
       <c r="E6">
-        <v>-0.002064934885216964</v>
+        <v>0.01418641628464949</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.02196234922356321</v>
+        <v>-0.002201146843136289</v>
       </c>
       <c r="C7">
-        <v>-0.0870252649522458</v>
+        <v>-0.02604659272727643</v>
       </c>
       <c r="D7">
-        <v>-0.03857322037650771</v>
+        <v>0.06791127085676443</v>
       </c>
       <c r="E7">
-        <v>-0.005205865604898488</v>
+        <v>0.01821784647549994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -819,16 +819,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.005325112303955059</v>
+        <v>0.002123004398791132</v>
       </c>
       <c r="C8">
-        <v>-0.07232205444032012</v>
+        <v>-0.007507024542813509</v>
       </c>
       <c r="D8">
-        <v>-0.05207663132713401</v>
+        <v>0.05551494583902768</v>
       </c>
       <c r="E8">
-        <v>-0.0418860063900403</v>
+        <v>0.03421699442575922</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -836,16 +836,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.004548687311475944</v>
+        <v>-0.005617364609260449</v>
       </c>
       <c r="C9">
-        <v>-0.1161501200574899</v>
+        <v>-0.01819207774393751</v>
       </c>
       <c r="D9">
-        <v>-0.05539851198930483</v>
+        <v>0.09585334586618403</v>
       </c>
       <c r="E9">
-        <v>0.0005605836994919661</v>
+        <v>0.02831855144031266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,16 +853,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.2657625613023273</v>
+        <v>0.003346708415431436</v>
       </c>
       <c r="C10">
-        <v>0.06679307479284625</v>
+        <v>-0.2295974937216221</v>
       </c>
       <c r="D10">
-        <v>0.01355713906913762</v>
+        <v>-0.1239741122742807</v>
       </c>
       <c r="E10">
-        <v>0.007055440871466209</v>
+        <v>-0.01228123503390466</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -870,16 +870,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.01352520937632718</v>
+        <v>-0.005678170447401111</v>
       </c>
       <c r="C11">
-        <v>-0.07953004404427656</v>
+        <v>-0.02768138363623784</v>
       </c>
       <c r="D11">
-        <v>-0.0325306923160573</v>
+        <v>0.08740471520880574</v>
       </c>
       <c r="E11">
-        <v>0.03453857545170147</v>
+        <v>0.04001642014083202</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.01303164402110604</v>
+        <v>-0.001296210697613111</v>
       </c>
       <c r="C12">
-        <v>-0.05483777670762784</v>
+        <v>-0.02357919554559008</v>
       </c>
       <c r="D12">
-        <v>-0.02469751815407863</v>
+        <v>0.05372750005988136</v>
       </c>
       <c r="E12">
-        <v>0.01781794780748546</v>
+        <v>0.02066940674251815</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -904,16 +904,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.004752334998456961</v>
+        <v>0.003656203163224017</v>
       </c>
       <c r="C13">
-        <v>-0.1329674990113059</v>
+        <v>-0.01506325922807546</v>
       </c>
       <c r="D13">
-        <v>-0.02204539535670922</v>
+        <v>0.114540654499937</v>
       </c>
       <c r="E13">
-        <v>-0.08063886892632441</v>
+        <v>0.03907783598488288</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -921,16 +921,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.01281734247648054</v>
+        <v>-0.003809014404568394</v>
       </c>
       <c r="C14">
-        <v>-0.09952208363440804</v>
+        <v>-0.02895665412546171</v>
       </c>
       <c r="D14">
-        <v>-0.05975828218503498</v>
+        <v>0.07878989365877369</v>
       </c>
       <c r="E14">
-        <v>-0.03744010490896315</v>
+        <v>0.02607315926603426</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -938,16 +938,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.001998936819266509</v>
+        <v>-0.003451379739246567</v>
       </c>
       <c r="C15">
-        <v>-0.08814145500611813</v>
+        <v>-0.009252848223899046</v>
       </c>
       <c r="D15">
-        <v>-0.02553924614497423</v>
+        <v>0.07219388921109059</v>
       </c>
       <c r="E15">
-        <v>-0.0005821487370629558</v>
+        <v>0.02516818278595792</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -955,16 +955,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.0125291131589081</v>
+        <v>-0.003271916341324463</v>
       </c>
       <c r="C16">
-        <v>-0.06358396632702772</v>
+        <v>-0.02316392061612614</v>
       </c>
       <c r="D16">
-        <v>-0.02962822813835944</v>
+        <v>0.06338564441187194</v>
       </c>
       <c r="E16">
-        <v>0.0260307105797298</v>
+        <v>0.02518510091557126</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1023,16 +1023,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.01476057559554595</v>
+        <v>-0.001163171161584594</v>
       </c>
       <c r="C20">
-        <v>-0.09710382315189563</v>
+        <v>-0.0238260155650532</v>
       </c>
       <c r="D20">
-        <v>-0.04805448322222536</v>
+        <v>0.08569453974260663</v>
       </c>
       <c r="E20">
-        <v>0.03612133516272557</v>
+        <v>0.02199356849272975</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1040,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.01080725137109762</v>
+        <v>0.004309356048639573</v>
       </c>
       <c r="C21">
-        <v>-0.09039587820807629</v>
+        <v>-0.01520344111553399</v>
       </c>
       <c r="D21">
-        <v>-0.01991235193571723</v>
+        <v>0.0726603776706814</v>
       </c>
       <c r="E21">
-        <v>-0.1032743982452432</v>
+        <v>0.009197376049069339</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.009881542587906515</v>
+        <v>-0.01679024949390659</v>
       </c>
       <c r="C22">
-        <v>-0.2258951578076055</v>
+        <v>-0.02253105435468452</v>
       </c>
       <c r="D22">
-        <v>0.08320138436602059</v>
+        <v>0.1666979088269475</v>
       </c>
       <c r="E22">
-        <v>-0.1512671080566429</v>
+        <v>0.02695878613101953</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,16 +1074,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.003042913741940077</v>
+        <v>-0.01707981544171405</v>
       </c>
       <c r="C23">
-        <v>-0.2328567040525225</v>
+        <v>-0.02736507398789961</v>
       </c>
       <c r="D23">
-        <v>0.08431069946447838</v>
+        <v>0.1685312198157746</v>
       </c>
       <c r="E23">
-        <v>-0.1455207769611259</v>
+        <v>0.02527799958054178</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1091,16 +1091,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.01201196620690949</v>
+        <v>-0.004377633514063845</v>
       </c>
       <c r="C24">
-        <v>-0.06883332681290875</v>
+        <v>-0.02318473642396093</v>
       </c>
       <c r="D24">
-        <v>-0.04801862161948312</v>
+        <v>0.06594258239908521</v>
       </c>
       <c r="E24">
-        <v>0.02228354878596832</v>
+        <v>0.03371173400191362</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1108,16 +1108,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.0171062047151286</v>
+        <v>-0.006021124507862642</v>
       </c>
       <c r="C25">
-        <v>-0.07071470537844531</v>
+        <v>-0.02995294360446452</v>
       </c>
       <c r="D25">
-        <v>-0.02673695738886874</v>
+        <v>0.06976943802098952</v>
       </c>
       <c r="E25">
-        <v>0.02581777417842176</v>
+        <v>0.02873616122167254</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.02765522582567212</v>
+        <v>-0.006341321704197562</v>
       </c>
       <c r="C26">
-        <v>-0.04812968378772406</v>
+        <v>-0.02754947290264729</v>
       </c>
       <c r="D26">
-        <v>-0.08666455796914305</v>
+        <v>0.04722656237385876</v>
       </c>
       <c r="E26">
-        <v>-0.02967782731760195</v>
+        <v>0.04530476448474697</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1159,16 +1159,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.3289074817333572</v>
+        <v>-0.007824748895372567</v>
       </c>
       <c r="C28">
-        <v>0.09649630913106962</v>
+        <v>-0.295963570158376</v>
       </c>
       <c r="D28">
-        <v>0.05599072962279602</v>
+        <v>-0.1475892538673858</v>
       </c>
       <c r="E28">
-        <v>0.008742055304795961</v>
+        <v>-0.03384362449171792</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,16 +1176,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.007993375607503097</v>
+        <v>-0.001809400481277407</v>
       </c>
       <c r="C29">
-        <v>-0.1062912085806828</v>
+        <v>-0.02401434127767083</v>
       </c>
       <c r="D29">
-        <v>-0.06489670396304453</v>
+        <v>0.0804463158993023</v>
       </c>
       <c r="E29">
-        <v>-0.0151103422761348</v>
+        <v>0.02848810758517963</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,16 +1193,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.01779996305580335</v>
+        <v>-0.005909311612314199</v>
       </c>
       <c r="C30">
-        <v>-0.1532244942144323</v>
+        <v>-0.04969825545482103</v>
       </c>
       <c r="D30">
-        <v>-0.05931474189893853</v>
+        <v>0.1457530816885109</v>
       </c>
       <c r="E30">
-        <v>-0.02773770654902513</v>
+        <v>0.03779602195564727</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,16 +1210,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.00725919049943122</v>
+        <v>-0.0005352022227155231</v>
       </c>
       <c r="C31">
-        <v>-0.07137598192292684</v>
+        <v>-0.02053350935906435</v>
       </c>
       <c r="D31">
-        <v>-0.04430723210190114</v>
+        <v>0.07223136939563249</v>
       </c>
       <c r="E31">
-        <v>0.0236621312880017</v>
+        <v>0.0291914601335436</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,16 +1227,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.01059221649673955</v>
+        <v>-0.00230077322285351</v>
       </c>
       <c r="C32">
-        <v>-0.09169751524236407</v>
+        <v>-0.02525962658455863</v>
       </c>
       <c r="D32">
-        <v>-0.02141111189377768</v>
+        <v>0.05082183925098908</v>
       </c>
       <c r="E32">
-        <v>-0.1208244799644499</v>
+        <v>0.02983051038418756</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.01496180079459526</v>
+        <v>-0.003424571430580906</v>
       </c>
       <c r="C33">
-        <v>-0.1036160315590154</v>
+        <v>-0.02829099574326173</v>
       </c>
       <c r="D33">
-        <v>-0.05551938229353277</v>
+        <v>0.09753726564859654</v>
       </c>
       <c r="E33">
-        <v>0.02621191370811415</v>
+        <v>0.04328467124222306</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1261,16 +1261,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.0118559403780514</v>
+        <v>-0.005689241615888011</v>
       </c>
       <c r="C34">
-        <v>-0.05292853374560442</v>
+        <v>-0.02345935754517574</v>
       </c>
       <c r="D34">
-        <v>-0.02503371064139013</v>
+        <v>0.05214482119844067</v>
       </c>
       <c r="E34">
-        <v>0.006048614484908753</v>
+        <v>0.02068398270680684</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1278,16 +1278,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.00536731096962774</v>
+        <v>-0.004429214004047833</v>
       </c>
       <c r="C35">
-        <v>-0.06562305760837864</v>
+        <v>-0.01740478890940836</v>
       </c>
       <c r="D35">
-        <v>-0.02382040408283574</v>
+        <v>0.05168025314051156</v>
       </c>
       <c r="E35">
-        <v>-0.003667220811197209</v>
+        <v>0.02007402549439348</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1295,16 +1295,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.01816679202966976</v>
+        <v>-0.004881179326238798</v>
       </c>
       <c r="C36">
-        <v>-0.05078662886444574</v>
+        <v>-0.01708523966956911</v>
       </c>
       <c r="D36">
-        <v>-0.06201752926865331</v>
+        <v>0.03940293468819416</v>
       </c>
       <c r="E36">
-        <v>-0.01395365341053275</v>
+        <v>0.02801458250006232</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1329,16 +1329,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.02461060590761773</v>
+        <v>0.002163941473332628</v>
       </c>
       <c r="C38">
-        <v>-0.05376940497355916</v>
+        <v>-0.01800365477184601</v>
       </c>
       <c r="D38">
-        <v>-0.03258081355978844</v>
+        <v>0.05567413751019022</v>
       </c>
       <c r="E38">
-        <v>0.03536561244428061</v>
+        <v>0.02657688129174086</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1346,16 +1346,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.003803779565643355</v>
+        <v>-0.01393981107156729</v>
       </c>
       <c r="C39">
-        <v>-0.1158658465356394</v>
+        <v>-0.03869749224904721</v>
       </c>
       <c r="D39">
-        <v>-0.06026809476352463</v>
+        <v>0.1295714476027848</v>
       </c>
       <c r="E39">
-        <v>-0.01273182627340762</v>
+        <v>0.04567648152383994</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1363,16 +1363,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.01802909628189071</v>
+        <v>-0.008271297767295417</v>
       </c>
       <c r="C40">
-        <v>-0.07116716093958297</v>
+        <v>-0.03524918931918471</v>
       </c>
       <c r="D40">
-        <v>-0.02189815756240645</v>
+        <v>0.08828476142903624</v>
       </c>
       <c r="E40">
-        <v>-0.003473472033744841</v>
+        <v>0.03965479739679052</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1380,16 +1380,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.02335487138876732</v>
+        <v>-0.000170445752895078</v>
       </c>
       <c r="C41">
-        <v>-0.04615491561815967</v>
+        <v>-0.02404289145257698</v>
       </c>
       <c r="D41">
-        <v>-0.02067697964371373</v>
+        <v>0.04224868276369471</v>
       </c>
       <c r="E41">
-        <v>0.02621034541698276</v>
+        <v>0.01248993474535154</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1414,16 +1414,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.01731014251447832</v>
+        <v>-0.003095991421650623</v>
       </c>
       <c r="C43">
-        <v>-0.04147857841332681</v>
+        <v>-0.02400635969828625</v>
       </c>
       <c r="D43">
-        <v>-0.04059244845710604</v>
+        <v>0.04184822910334637</v>
       </c>
       <c r="E43">
-        <v>0.02957197999515747</v>
+        <v>0.02317068262075725</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1431,16 +1431,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.01116300220268485</v>
+        <v>-0.005522914805792755</v>
       </c>
       <c r="C44">
-        <v>-0.101105226598257</v>
+        <v>-0.02728049843664817</v>
       </c>
       <c r="D44">
-        <v>-0.07305204552611365</v>
+        <v>0.102141638464178</v>
       </c>
       <c r="E44">
-        <v>-0.04356841774813242</v>
+        <v>0.05502929322648081</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1465,16 +1465,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.002077492128918586</v>
+        <v>-0.002523712749610395</v>
       </c>
       <c r="C46">
-        <v>-0.07298435945422425</v>
+        <v>-0.01340221176530353</v>
       </c>
       <c r="D46">
-        <v>-0.06878833148432489</v>
+        <v>0.07436606363067746</v>
       </c>
       <c r="E46">
-        <v>0.003126648563456502</v>
+        <v>0.01551404611816439</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,16 +1482,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.01905312976096916</v>
+        <v>-0.001732593814389458</v>
       </c>
       <c r="C47">
-        <v>-0.07421062660732916</v>
+        <v>-0.0266373943364406</v>
       </c>
       <c r="D47">
-        <v>-0.06243878590635649</v>
+        <v>0.07195416274944451</v>
       </c>
       <c r="E47">
-        <v>0.009141546455412047</v>
+        <v>0.03841584624778811</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,16 +1499,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.02331324178806202</v>
+        <v>0.00352646959833216</v>
       </c>
       <c r="C48">
-        <v>-0.05842806486013176</v>
+        <v>-0.02071888609880393</v>
       </c>
       <c r="D48">
-        <v>-0.07725354749296376</v>
+        <v>0.04161536513929265</v>
       </c>
       <c r="E48">
-        <v>-0.008517290919699341</v>
+        <v>0.04070808124771875</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1516,16 +1516,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.01459181402572948</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04660460156204719</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.08493323663224008</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04354180754518834</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.01106558111926209</v>
+        <v>-0.0008235110682250549</v>
       </c>
       <c r="C50">
-        <v>-0.07984263175256044</v>
+        <v>-0.02047349910814644</v>
       </c>
       <c r="D50">
-        <v>-0.04670378973489316</v>
+        <v>0.07040784681389343</v>
       </c>
       <c r="E50">
-        <v>0.02375657222668619</v>
+        <v>0.01864011536854069</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.0003250723769514965</v>
+        <v>0.001078948809866231</v>
       </c>
       <c r="C51">
-        <v>-0.06697868516495302</v>
+        <v>-0.0007497910641888351</v>
       </c>
       <c r="D51">
-        <v>-0.04337298391631624</v>
+        <v>0.03103192931949698</v>
       </c>
       <c r="E51">
-        <v>-0.03584164854520124</v>
+        <v>0.0199373424717784</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1584,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.03654689219905342</v>
+        <v>0.0006367308146113171</v>
       </c>
       <c r="C53">
-        <v>-0.09794896670490941</v>
+        <v>-0.07970895884199834</v>
       </c>
       <c r="D53">
-        <v>-0.0449223041098179</v>
+        <v>0.1339410628994585</v>
       </c>
       <c r="E53">
-        <v>0.04888694415722421</v>
+        <v>0.05932375859640997</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1601,16 +1601,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>-0.01376684781816829</v>
+        <v>-0.0009055136015130175</v>
       </c>
       <c r="C54">
-        <v>-0.07434787320547184</v>
+        <v>-0.02420621029727457</v>
       </c>
       <c r="D54">
-        <v>-0.0164009850731037</v>
+        <v>0.07151624985923635</v>
       </c>
       <c r="E54">
-        <v>0.03500966857817357</v>
+        <v>0.007791902348292222</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1618,16 +1618,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.01762730688887856</v>
+        <v>-0.005071598332173455</v>
       </c>
       <c r="C55">
-        <v>-0.06467626487968302</v>
+        <v>-0.04168138489297636</v>
       </c>
       <c r="D55">
-        <v>-0.06199625764214628</v>
+        <v>0.08702112303998774</v>
       </c>
       <c r="E55">
-        <v>0.02828999497011539</v>
+        <v>0.05044450812636878</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1635,16 +1635,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>-0.01704457759181757</v>
+        <v>0.002294187046496752</v>
       </c>
       <c r="C56">
-        <v>-0.1288824113976789</v>
+        <v>-0.07313516968687005</v>
       </c>
       <c r="D56">
-        <v>-0.05647197908699204</v>
+        <v>0.1622868464937667</v>
       </c>
       <c r="E56">
-        <v>0.006663024450020408</v>
+        <v>0.08127447219375085</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1669,16 +1669,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.023438884282872</v>
+        <v>-0.008797592862897377</v>
       </c>
       <c r="C58">
-        <v>-0.2498275769342602</v>
+        <v>-0.03676530096850616</v>
       </c>
       <c r="D58">
-        <v>0.01440453389641769</v>
+        <v>0.1573387382880371</v>
       </c>
       <c r="E58">
-        <v>-0.1255742523921518</v>
+        <v>0.02885288981536403</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1686,16 +1686,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>-0.2898867529790561</v>
+        <v>-0.009860719084596995</v>
       </c>
       <c r="C59">
-        <v>0.005208227279842746</v>
+        <v>-0.2815220306137114</v>
       </c>
       <c r="D59">
-        <v>0.02256723119725233</v>
+        <v>-0.08302346816326453</v>
       </c>
       <c r="E59">
-        <v>-0.07411680326195201</v>
+        <v>-0.009146681977665713</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,16 +1703,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>-0.143744012745447</v>
+        <v>-0.008388607918825348</v>
       </c>
       <c r="C60">
-        <v>-0.1588614956431062</v>
+        <v>-0.1690475651420345</v>
       </c>
       <c r="D60">
-        <v>-0.0239727621908904</v>
+        <v>0.1485594162055708</v>
       </c>
       <c r="E60">
-        <v>0.05778050061330854</v>
+        <v>0.01577149714625228</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1720,16 +1720,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>-0.01019388522576877</v>
+        <v>-0.01607103607404465</v>
       </c>
       <c r="C61">
-        <v>-0.09989287811734675</v>
+        <v>-0.03863987967381281</v>
       </c>
       <c r="D61">
-        <v>-0.06636453052033056</v>
+        <v>0.1002210005760625</v>
       </c>
       <c r="E61">
-        <v>0.01848580988681992</v>
+        <v>0.04879011307067609</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1737,16 +1737,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.1841884240296005</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.003857114978914916</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.03258727787007947</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.009256607652347511</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,16 +1754,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-0.01651325103209766</v>
+        <v>-0.002685130507648704</v>
       </c>
       <c r="C63">
-        <v>-0.05339083985218025</v>
+        <v>-0.03288744808843878</v>
       </c>
       <c r="D63">
-        <v>-0.08509501313748</v>
+        <v>0.05502690154998027</v>
       </c>
       <c r="E63">
-        <v>0.003414830809969023</v>
+        <v>0.04473649859582663</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1771,16 +1771,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.001241224781864089</v>
+        <v>-0.008133167938446734</v>
       </c>
       <c r="C64">
-        <v>-0.1021987378150838</v>
+        <v>-0.02697447473651193</v>
       </c>
       <c r="D64">
-        <v>-0.06795816932485442</v>
+        <v>0.08834925166011375</v>
       </c>
       <c r="E64">
-        <v>0.05092579523202044</v>
+        <v>0.02414061818738973</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,16 +1788,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.02010230160641461</v>
+        <v>-0.0001633483787358739</v>
       </c>
       <c r="C65">
-        <v>-0.1110306566211691</v>
+        <v>-0.04011521132405469</v>
       </c>
       <c r="D65">
-        <v>-0.03748820997569976</v>
+        <v>0.09093712683497236</v>
       </c>
       <c r="E65">
-        <v>0.06357170374888081</v>
+        <v>0.009860076543503304</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,16 +1805,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.004768297638651041</v>
+        <v>-0.01031802628871921</v>
       </c>
       <c r="C66">
-        <v>-0.1663604646940589</v>
+        <v>-0.04310856868003916</v>
       </c>
       <c r="D66">
-        <v>-0.05878683053347961</v>
+        <v>0.1758763798659387</v>
       </c>
       <c r="E66">
-        <v>-0.03084944918174341</v>
+        <v>0.04844402614999119</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1822,16 +1822,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>-0.03042724754867685</v>
+        <v>0.002152517159809807</v>
       </c>
       <c r="C67">
-        <v>-0.03709566181000103</v>
+        <v>-0.02924829446262463</v>
       </c>
       <c r="D67">
-        <v>-0.04146113427831675</v>
+        <v>0.05281060845224719</v>
       </c>
       <c r="E67">
-        <v>0.066066516867075</v>
+        <v>0.03347661003713</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1839,16 +1839,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>-0.3062803743995151</v>
+        <v>-0.01066199136029537</v>
       </c>
       <c r="C68">
-        <v>0.0271753917294447</v>
+        <v>-0.276591630266767</v>
       </c>
       <c r="D68">
-        <v>0.05146581174524176</v>
+        <v>-0.1182446832836175</v>
       </c>
       <c r="E68">
-        <v>-0.03089481670670809</v>
+        <v>-0.04046719171597833</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1856,16 +1856,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>-0.01617978584584188</v>
+        <v>-0.003756911867863098</v>
       </c>
       <c r="C69">
-        <v>-0.05768608322275171</v>
+        <v>-0.01381262909635234</v>
       </c>
       <c r="D69">
-        <v>-0.04199080285899184</v>
+        <v>0.04558239594460112</v>
       </c>
       <c r="E69">
-        <v>0.02896923640157301</v>
+        <v>0.02071810967275718</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1890,16 +1890,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>-0.2893638488756115</v>
+        <v>-0.005820132447567494</v>
       </c>
       <c r="C71">
-        <v>0.03670047385830363</v>
+        <v>-0.2651717858340964</v>
       </c>
       <c r="D71">
-        <v>0.005239893966931465</v>
+        <v>-0.1150800062578539</v>
       </c>
       <c r="E71">
-        <v>-0.01007968140701204</v>
+        <v>-0.02130623533063183</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1907,16 +1907,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.02371801075431937</v>
+        <v>-0.009325513127510524</v>
       </c>
       <c r="C72">
-        <v>-0.1342029880008754</v>
+        <v>-0.06914571123691612</v>
       </c>
       <c r="D72">
-        <v>-0.0336836941757695</v>
+        <v>0.1289530318720359</v>
       </c>
       <c r="E72">
-        <v>0.02570903399380624</v>
+        <v>0.02135884996962752</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1924,16 +1924,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>-0.126855688675798</v>
+        <v>-0.01557149097929365</v>
       </c>
       <c r="C73">
-        <v>-0.1393731494380909</v>
+        <v>-0.179488378717673</v>
       </c>
       <c r="D73">
-        <v>-0.1027698443673178</v>
+        <v>0.1730926786796511</v>
       </c>
       <c r="E73">
-        <v>0.08511092233178923</v>
+        <v>0.05207449147414753</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1941,16 +1941,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.02387850150340906</v>
+        <v>-0.004820302725291758</v>
       </c>
       <c r="C74">
-        <v>-0.08648134326971443</v>
+        <v>-0.04981242042874004</v>
       </c>
       <c r="D74">
-        <v>-0.05857045795850536</v>
+        <v>0.1013199234979778</v>
       </c>
       <c r="E74">
-        <v>0.0211053176704433</v>
+        <v>0.03231097396098253</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1958,16 +1958,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.03605781075885851</v>
+        <v>-0.007780550572585518</v>
       </c>
       <c r="C75">
-        <v>-0.1352661456828049</v>
+        <v>-0.0786957112911171</v>
       </c>
       <c r="D75">
-        <v>-0.04608453666653413</v>
+        <v>0.1745879320399882</v>
       </c>
       <c r="E75">
-        <v>0.07707087980392292</v>
+        <v>0.0657651872568103</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,16 +1975,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>-0.0201198886217072</v>
+        <v>0.01125366398464528</v>
       </c>
       <c r="C76">
-        <v>-0.1005294482476688</v>
+        <v>-0.06377534045209966</v>
       </c>
       <c r="D76">
-        <v>-0.07018961695848142</v>
+        <v>0.1391514821103692</v>
       </c>
       <c r="E76">
-        <v>0.04219905742759902</v>
+        <v>0.07569159987792649</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1992,16 +1992,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>-6.720606408877481e-06</v>
+        <v>0.003515154202012937</v>
       </c>
       <c r="C77">
-        <v>-0.363590637305127</v>
+        <v>-0.04738398739776552</v>
       </c>
       <c r="D77">
-        <v>0.8628517823035139</v>
+        <v>0.3265891003584712</v>
       </c>
       <c r="E77">
-        <v>0.1837509733319356</v>
+        <v>-0.9327917510062037</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2009,16 +2009,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.02493009562845201</v>
+        <v>0.0001260738012997528</v>
       </c>
       <c r="C78">
-        <v>-0.1152275065125332</v>
+        <v>-0.04503885312650516</v>
       </c>
       <c r="D78">
-        <v>-0.1375402167225072</v>
+        <v>0.09871853029351529</v>
       </c>
       <c r="E78">
-        <v>-0.07565957368783634</v>
+        <v>0.05619998153445611</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2026,16 +2026,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>-0.02194274111238357</v>
+        <v>0.0274286820881715</v>
       </c>
       <c r="C79">
-        <v>-0.1243824728857852</v>
+        <v>-0.0728075924475021</v>
       </c>
       <c r="D79">
-        <v>-0.0609135114274141</v>
+        <v>0.1390005767295036</v>
       </c>
       <c r="E79">
-        <v>0.02344199914498491</v>
+        <v>0.04510454061511737</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2043,16 +2043,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.0218845056348468</v>
+        <v>0.004887352621136582</v>
       </c>
       <c r="C80">
-        <v>-0.0516962986627367</v>
+        <v>-0.02835919629203083</v>
       </c>
       <c r="D80">
-        <v>-0.04308478055877564</v>
+        <v>0.04283643521752996</v>
       </c>
       <c r="E80">
-        <v>-0.04566184688203105</v>
+        <v>0.03643536852914857</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2060,16 +2060,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>-0.003250956443379097</v>
+        <v>-1.033035782409779e-06</v>
       </c>
       <c r="C81">
-        <v>-0.09230978859432247</v>
+        <v>-0.03075409285722865</v>
       </c>
       <c r="D81">
-        <v>-0.06400548920240506</v>
+        <v>0.1128891814554896</v>
       </c>
       <c r="E81">
-        <v>0.04294450353166929</v>
+        <v>0.05373285441442453</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2077,16 +2077,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>-0.01854128181033636</v>
+        <v>0.006088067802716886</v>
       </c>
       <c r="C82">
-        <v>-0.07084724410199664</v>
+        <v>-0.06112768141406461</v>
       </c>
       <c r="D82">
-        <v>-0.06413821666635576</v>
+        <v>0.1108982800729189</v>
       </c>
       <c r="E82">
-        <v>0.02538455743683739</v>
+        <v>0.06190751919072072</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,16 +2094,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>-0.002627618901847052</v>
+        <v>-0.007170522187755122</v>
       </c>
       <c r="C83">
-        <v>0.02368178026669936</v>
+        <v>0.0004415200262597689</v>
       </c>
       <c r="D83">
-        <v>0.1416557069541588</v>
+        <v>-0.01467325539314524</v>
       </c>
       <c r="E83">
-        <v>-0.8438253300113173</v>
+        <v>-0.04945887786796172</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2111,16 +2111,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.004539938803495399</v>
+        <v>0.01275476403444134</v>
       </c>
       <c r="C84">
-        <v>-0.09675835444605552</v>
+        <v>-0.01972133001433008</v>
       </c>
       <c r="D84">
-        <v>-0.03243563235596908</v>
+        <v>0.05351227104038649</v>
       </c>
       <c r="E84">
-        <v>-0.01329932099807945</v>
+        <v>0.06086235072725044</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,16 +2128,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>-0.009222995419328608</v>
+        <v>0.01598965423093635</v>
       </c>
       <c r="C85">
-        <v>-0.1000339609310111</v>
+        <v>-0.04476269335876996</v>
       </c>
       <c r="D85">
-        <v>-0.03846302389299748</v>
+        <v>0.1324876153307488</v>
       </c>
       <c r="E85">
-        <v>0.03399901478818067</v>
+        <v>0.05405438441838246</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2145,16 +2145,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>-0.01711575110468915</v>
+        <v>-0.003789678003838727</v>
       </c>
       <c r="C86">
-        <v>-0.08847536784482865</v>
+        <v>-0.02253051999870601</v>
       </c>
       <c r="D86">
-        <v>-0.02986673396955009</v>
+        <v>0.07177988464878571</v>
       </c>
       <c r="E86">
-        <v>-0.001402886842376338</v>
+        <v>0.02976706106386574</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2162,16 +2162,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.006522610884821142</v>
+        <v>-0.008039338315148897</v>
       </c>
       <c r="C87">
-        <v>-0.1406414515856737</v>
+        <v>-0.03515861993466895</v>
       </c>
       <c r="D87">
-        <v>-0.05680894477740016</v>
+        <v>0.1217917367141058</v>
       </c>
       <c r="E87">
-        <v>-0.08456046112043428</v>
+        <v>0.01271152380500657</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2179,16 +2179,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>-0.02826937078826021</v>
+        <v>-0.01477004801223397</v>
       </c>
       <c r="C88">
-        <v>-0.0562525171935731</v>
+        <v>-0.04432746525005352</v>
       </c>
       <c r="D88">
-        <v>-0.05649512625350683</v>
+        <v>0.06040936221268064</v>
       </c>
       <c r="E88">
-        <v>0.04698437362601384</v>
+        <v>0.02846082889748022</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2196,16 +2196,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>-0.3940065260439502</v>
+        <v>-0.01865446509102547</v>
       </c>
       <c r="C89">
-        <v>0.05721044112780321</v>
+        <v>-0.3756311380991961</v>
       </c>
       <c r="D89">
-        <v>0.02140697601115052</v>
+        <v>-0.1512935606788244</v>
       </c>
       <c r="E89">
-        <v>-0.006991615075238295</v>
+        <v>-0.04143283223256835</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2213,16 +2213,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>-0.3142708045823869</v>
+        <v>-0.005455295854626454</v>
       </c>
       <c r="C90">
-        <v>0.02505675884167915</v>
+        <v>-0.311635603604425</v>
       </c>
       <c r="D90">
-        <v>0.006002856820178648</v>
+        <v>-0.107911199474756</v>
       </c>
       <c r="E90">
-        <v>-0.07311872486313183</v>
+        <v>-0.01701307453678615</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2230,16 +2230,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>-0.03620282179459516</v>
+        <v>0.001376307710800557</v>
       </c>
       <c r="C91">
-        <v>-0.07448520111759034</v>
+        <v>-0.06780300484317636</v>
       </c>
       <c r="D91">
-        <v>-0.04198132180160723</v>
+        <v>0.082368891719219</v>
       </c>
       <c r="E91">
-        <v>-0.006789355675568392</v>
+        <v>0.04928381956697363</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2247,16 +2247,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>-0.3653587121921855</v>
+        <v>-0.01765648986316144</v>
       </c>
       <c r="C92">
-        <v>0.06167040279852273</v>
+        <v>-0.3335368816603306</v>
       </c>
       <c r="D92">
-        <v>0.04745756543520929</v>
+        <v>-0.1491312952773414</v>
       </c>
       <c r="E92">
-        <v>0.08146256123838225</v>
+        <v>-0.06846114823354468</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2264,16 +2264,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>-0.3169448716557249</v>
+        <v>-0.004404301301366112</v>
       </c>
       <c r="C93">
-        <v>0.07873610225943563</v>
+        <v>-0.2930730396345461</v>
       </c>
       <c r="D93">
-        <v>0.01212808598620287</v>
+        <v>-0.1504885532665957</v>
       </c>
       <c r="E93">
-        <v>-0.03663404152636041</v>
+        <v>-0.01317771056837434</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2281,16 +2281,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.03406969939997131</v>
+        <v>0.002229764167245377</v>
       </c>
       <c r="C94">
-        <v>-0.1601648270487856</v>
+        <v>-0.1001670711197458</v>
       </c>
       <c r="D94">
-        <v>-0.09949313268772374</v>
+        <v>0.16226275624861</v>
       </c>
       <c r="E94">
-        <v>0.07343080232406869</v>
+        <v>0.08488584841393444</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2298,16 +2298,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.03349320303130296</v>
+        <v>-0.005855892262293083</v>
       </c>
       <c r="C95">
-        <v>-0.1316337340730784</v>
+        <v>-0.05965770354081509</v>
       </c>
       <c r="D95">
-        <v>-0.06617362641969</v>
+        <v>0.1351822355260106</v>
       </c>
       <c r="E95">
-        <v>0.02021914411947852</v>
+        <v>0.05509147282686085</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2332,16 +2332,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.002899187557482363</v>
+        <v>-0.00418355817956101</v>
       </c>
       <c r="C97">
-        <v>-0.002104365568723778</v>
+        <v>-0.03338332280886265</v>
       </c>
       <c r="D97">
-        <v>-0.008393472358726803</v>
+        <v>0.04464630731748128</v>
       </c>
       <c r="E97">
-        <v>0.007105031298478103</v>
+        <v>0.01013424618123017</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2349,16 +2349,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>-0.1100550171850953</v>
+        <v>-0.007881114036171822</v>
       </c>
       <c r="C98">
-        <v>-0.165257074851175</v>
+        <v>-0.1658114386779347</v>
       </c>
       <c r="D98">
-        <v>-0.07283958082318343</v>
+        <v>0.1454769861245249</v>
       </c>
       <c r="E98">
-        <v>0.06608279362373667</v>
+        <v>0.07874786983988273</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2366,16 +2366,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.9801306843649418</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.03470228830044712</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.005498133003472344</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.004000772927730723</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2400,16 +2400,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>-0.008002580232519011</v>
+        <v>-0.001765947158021138</v>
       </c>
       <c r="C101">
-        <v>-0.1042123685075225</v>
+        <v>-0.02406056117659964</v>
       </c>
       <c r="D101">
-        <v>-0.06435908342091505</v>
+        <v>0.07929873022002919</v>
       </c>
       <c r="E101">
-        <v>-0.01584410800175189</v>
+        <v>0.0271435038648324</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2417,16 +2417,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0004371368910752462</v>
+        <v>1.380253182360803e-05</v>
       </c>
       <c r="C102">
-        <v>-0.000644796524036915</v>
+        <v>0.0002036428919941897</v>
       </c>
       <c r="D102">
-        <v>0.0001406792609186278</v>
+        <v>0.0004423001486434726</v>
       </c>
       <c r="E102">
-        <v>-8.54871557624256e-05</v>
+        <v>-0.0002209910988503103</v>
       </c>
     </row>
     <row r="103" spans="1:5">
